--- a/data/woniuboss4.0_cases_yun.xlsx
+++ b/data/woniuboss4.0_cases_yun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="14355" windowHeight="9540" activeTab="1"/>
+    <workbookView windowWidth="14595" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="2" r:id="rId1"/>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>regionId=</t>
     </r>
     <r>
@@ -603,6 +609,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>regionId=</t>
     </r>
     <r>
@@ -639,6 +651,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>c.class_no=WNCDC66
 c.orientation=</t>
     </r>
@@ -674,6 +692,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>c.class_no=WNCDC61
 c.orientation=</t>
     </r>
@@ -715,7 +739,101 @@
   </si>
   <si>
     <r>
-      <t>stuName=</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>attendance=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>attendance=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请假</t>
+    </r>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>leave_query</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>region_id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+leave_status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请假中</t>
+    </r>
+  </si>
+  <si>
+    <t>change_leave</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sl.stuName=</t>
     </r>
     <r>
       <rPr>
@@ -734,21 +852,27 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-attendance=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stuName=</t>
+sl.reason=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家里有事</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sl.stuName=</t>
     </r>
     <r>
       <rPr>
@@ -767,155 +891,20 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-attendance=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请假</t>
-    </r>
-  </si>
-  <si>
-    <t>leave</t>
-  </si>
-  <si>
-    <t>leave_query</t>
-  </si>
-  <si>
-    <r>
-      <t>region_id=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-leave_status=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请假中</t>
-    </r>
-  </si>
-  <si>
-    <t>change_leave</t>
-  </si>
-  <si>
-    <r>
-      <t>sl.start_time=2020-05-21
-sl.end_time=2020-05-21
-sl.leave_type=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事假</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-sl.days=1
-sl.stuName=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-sl.leave_count=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不扣分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
 sl.reason=</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事假</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-sl.comment=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跟班</t>
-    </r>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>add_leave</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>sl.start_time=2020-05-21
 sl.end_time=2020-05-22
 sl.leave_type=</t>
@@ -937,7 +926,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-sl.days=2
+sl.days=1
 sl.stuName=</t>
     </r>
     <r>
@@ -990,10 +979,13 @@
     </r>
   </si>
   <si>
-    <t>add_leave</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>sl.start_time=2020-05-21
 sl.end_time=2020-05-22
 sl.leave_type=</t>
@@ -1005,7 +997,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>病假</t>
+      <t>事假</t>
     </r>
     <r>
       <rPr>
@@ -1057,81 +1049,6 @@
 sl.reason=
 sl.comment=</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跟班</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>sl.start_time=2020-05-21
-sl.end_time=2020-05-22
-sl.leave_type=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事假</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-sl.days=1
-sl.stuName=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-sl.leave_count=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扣分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-sl.reason=
-sl.comment=</t>
-    </r>
   </si>
   <si>
     <t>change_class</t>
@@ -1157,7 +1074,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-stuClass=WNCD99</t>
+stuClass=WNCDC22</t>
     </r>
   </si>
   <si>
@@ -1181,7 +1098,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-stuClass=WNCD33</t>
+stuClass=WNCDC33</t>
     </r>
   </si>
 </sst>
@@ -1356,8 +1273,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,9 +1288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,6 +1304,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1405,31 +1466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,132 +1485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,145 +1601,145 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2281,8 +2198,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2394,7 +2311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:6">
+    <row r="6" ht="15" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2414,7 +2331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:6">
+    <row r="7" ht="15" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2454,7 +2371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="114" spans="1:6">
+    <row r="9" ht="28.5" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2474,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="114" spans="1:6">
+    <row r="10" ht="28.5" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
